--- a/pruebas/Planning/planing.xlsx
+++ b/pruebas/Planning/planing.xlsx
@@ -12,20 +12,14 @@
     <x:workbookView xWindow="120" yWindow="105" windowWidth="15135" windowHeight="9600" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Informe planning" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Informe planning 2" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Informe planning 3" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Informe planning 4" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Informe planning" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Informe planning 2" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm.Print_Area" localSheetId="0">'Informe planning'!$A$1:$E$1048576</x:definedName>
     <x:definedName name="_xlnm.Print_Titles" localSheetId="0">'Informe planning'!1:3</x:definedName>
     <x:definedName name="_xlnm.Print_Area" localSheetId="1">'Informe planning 2'!$A$1:$E$1048576</x:definedName>
     <x:definedName name="_xlnm.Print_Titles" localSheetId="1">'Informe planning 2'!1:3</x:definedName>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="2">'Informe planning 3'!$A$1:$E$1048576</x:definedName>
-    <x:definedName name="_xlnm.Print_Titles" localSheetId="2">'Informe planning 3'!1:3</x:definedName>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="3">'Informe planning 4'!$A$1:$E$1048576</x:definedName>
-    <x:definedName name="_xlnm.Print_Titles" localSheetId="3">'Informe planning 4'!1:3</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="124519"/>
 </x:workbook>
@@ -34,7 +28,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>MODELO 130 - I.R.P.F.</x:t>
+    <x:t>MODELO 115 - I.R.P.F.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -62,7 +56,19 @@
     <x:t>Situación</x:t>
   </x:si>
   <x:si>
-    <x:t>00001</x:t>
+    <x:t>00002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APELLIDO APELLIDO, FRANCISCO MANUEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04100004R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PENDIENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00003</x:t>
   </x:si>
   <x:si>
     <x:t>CLEMENTE RODRIGUEZ, CARLOS</x:t>
@@ -71,27 +77,6 @@
     <x:t>05196375P</x:t>
   </x:si>
   <x:si>
-    <x:t>PENDIENTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APELLIDO APELLIDO, FRANCISCO MANUEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04100004R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMPRESARIO ESPAÑOL, NOMBRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51010001A</x:t>
-  </x:si>
-  <x:si>
     <x:t>00006</x:t>
   </x:si>
   <x:si>
@@ -101,37 +86,22 @@
     <x:t>05126963X</x:t>
   </x:si>
   <x:si>
-    <x:t>00009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GREGORIO SEGURA, FRANCISCO JAVIER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07566676K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COMUNIDAD DE BIENES PRUEBAS C.B.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E02000008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PETROMORAIRA SL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B98765902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00020</x:t>
+    <x:t>00014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMUNIDAD DE BIENES ALQUILERES C.B.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E02100014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIQUET 3923-324 LOPEZ ANDRES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B11111119</x:t>
   </x:si>
   <x:si>
     <x:t>00023</x:t>
@@ -143,19 +113,22 @@
     <x:t>05100001G</x:t>
   </x:si>
   <x:si>
-    <x:t>00024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRUEBAS TIQUET, NOMBRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45454545J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMPRESA DE PRUEBAS CONTABLES</x:t>
+    <x:t>00027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMPRESA DE PRUEBAS S.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B02100006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RODRIGUEZ SANCHEZ, REMEDIOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04870613H</x:t>
   </x:si>
   <x:si>
     <x:t>00031</x:t>
@@ -167,135 +140,6 @@
     <x:t>04444001X</x:t>
   </x:si>
   <x:si>
-    <x:t>00034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APELLIDO MODULOS, NOMBRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06100001X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLIENTE PRUEBAS, NOMBRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74000001P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRUEBAS RENTA, NOMBRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04200001V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIQUET 3308-614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COMUNIDAD DE BIENES GENERAL C.B.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E02028702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRUEBAS COMUNIDAD C.B.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E02100220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00087</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COMUNIDAD DE PRUEBAS, C.B.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E02021129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIQUET EQUIPO CONSULTOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE AMO MOLINA, JUAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52746508X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MODELO 115 - I.R.P.F.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COMUNIDAD DE BIENES ALQUILERES C.B.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E02100014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIQUET 3923-324 LOPEZ ANDRES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B11111119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMPRESA DE PRUEBAS S.L.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B02100006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RODRIGUEZ SANCHEZ, REMEDIOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04870613H</x:t>
-  </x:si>
-  <x:si>
     <x:t>00033</x:t>
   </x:si>
   <x:si>
@@ -330,10 +174,160 @@
   </x:si>
   <x:si>
     <x:t>44444443W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MODELO 130 - I.R.P.F.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>00001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMPRESARIO ESPAÑOL, NOMBRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51010001A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GREGORIO SEGURA, FRANCISCO JAVIER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07566676K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMUNIDAD DE BIENES PRUEBAS C.B.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E02000008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PETROMORAIRA SL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B98765902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRUEBAS TIQUET, NOMBRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45454545J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMPRESA DE PRUEBAS CONTABLES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APELLIDO MODULOS, NOMBRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06100001X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLIENTE PRUEBAS, NOMBRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74000001P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRUEBAS RENTA, NOMBRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04200001V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIQUET 3308-614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMUNIDAD DE BIENES GENERAL C.B.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E02028702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRUEBAS COMUNIDAD C.B.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E02100220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMUNIDAD DE PRUEBAS, C.B.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E02021129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIQUET EQUIPO CONSULTOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE AMO MOLINA, JUAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52746508X</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -911,500 +905,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-    <x:pageSetUpPr fitToPage="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E3"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="A4" sqref="A4"/>
-      <x:selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.425781" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="8.710938" style="19" customWidth="1"/>
-    <x:col min="2" max="2" width="50.710938" style="20" customWidth="1"/>
-    <x:col min="3" max="3" width="15.710938" style="20" customWidth="1"/>
-    <x:col min="4" max="4" width="45.710938" style="21" customWidth="1"/>
-    <x:col min="5" max="5" width="15.710938" style="22" customWidth="1"/>
-    <x:col min="6" max="6" width="5" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="16384" width="11.425781" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" ht="30" customHeight="1" s="1" customFormat="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6" ht="18" customHeight="1" s="23" customFormat="1">
-      <x:c r="A2" s="11" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D2" s="9"/>
-      <x:c r="E2" s="10"/>
-      <x:c r="F2" s="23" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" s="4" customFormat="1">
-      <x:c r="A3" s="24" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="25" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D3" s="25" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E3" s="26" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="27" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="20" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="20" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E4" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="27" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B5" s="20" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="20" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E5" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B6" s="20" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="20" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E6" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="27" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B7" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E7" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="27" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B8" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E8" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="27" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B9" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="20" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E9" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="27" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B10" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E10" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="27" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E11" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="27" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E12" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="27" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B13" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C13" s="20" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E13" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="27" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B14" s="20" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C14" s="20" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E14" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="27" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B15" s="20" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E15" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="27" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B16" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C16" s="20" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E16" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="27" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B17" s="20" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C17" s="20" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E17" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="A18" s="27" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B18" s="20" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C18" s="20" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E18" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="27" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B19" s="20" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C19" s="20" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E19" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="A20" s="27" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B20" s="20" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C20" s="20" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E20" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="A21" s="27" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B21" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E21" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="27" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B22" s="20" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C22" s="20" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E22" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="A23" s="27" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E23" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:6">
-      <x:c r="A24" s="27" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B24" s="20" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C24" s="20" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E24" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:6">
-      <x:c r="A25" s="27" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E25" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:6">
-      <x:c r="A26" s="27" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E26" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:6">
-      <x:c r="A27" s="27" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B27" s="20" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C27" s="20" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E27" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:6">
-      <x:c r="A28" s="27" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B28" s="20" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E28" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:6">
-      <x:c r="A29" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B29" s="20" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C29" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E29" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="1">
-    <x:mergeCell ref="A1:E1"/>
-  </x:mergeCells>
-  <x:phoneticPr fontId="0" type="noConversion"/>
-  <x:printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <x:pageSetup paperSize="9" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="0">
-    <x:oddHeader/>
-    <x:oddFooter>&amp;L&amp;"Courier New,Normal"Fecha impresion: &amp;D&amp;C&amp;"Courier New,Normal"Página &amp;P</x:oddFooter>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
@@ -1431,7 +931,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="30" customHeight="1" s="1" customFormat="1">
       <x:c r="A1" s="16" t="s">
-        <x:v>73</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
@@ -1477,13 +977,13 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="27" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="20" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="22" t="s">
         <x:v>12</x:v>
@@ -1494,13 +994,13 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="27" t="s">
-        <x:v>74</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="20" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="22" t="s">
         <x:v>12</x:v>
@@ -1511,13 +1011,13 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="27" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="20" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
         <x:v>12</x:v>
@@ -1528,13 +1028,13 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="27" t="s">
-        <x:v>75</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B7" s="20" t="s">
-        <x:v>76</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="20" t="s">
-        <x:v>77</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="22" t="s">
         <x:v>12</x:v>
@@ -1545,13 +1045,13 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="27" t="s">
-        <x:v>78</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B8" s="20" t="s">
-        <x:v>79</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>80</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="22" t="s">
         <x:v>12</x:v>
@@ -1562,13 +1062,13 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="20" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
-        <x:v>35</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="22" t="s">
         <x:v>12</x:v>
@@ -1579,13 +1079,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="27" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B10" s="20" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="22" t="s">
         <x:v>12</x:v>
@@ -1596,13 +1096,13 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B11" s="20" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="22" t="s">
         <x:v>12</x:v>
@@ -1613,13 +1113,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="27" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B12" s="20" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="22" t="s">
         <x:v>12</x:v>
@@ -1630,10 +1130,10 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="27" t="s">
-        <x:v>87</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B13" s="20" t="s">
-        <x:v>88</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="20">
         <x:v>1111111111</x:v>
@@ -1647,13 +1147,13 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B14" s="20" t="s">
-        <x:v>90</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="22" t="s">
         <x:v>12</x:v>
@@ -1664,7 +1164,7 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="27" t="s">
-        <x:v>92</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E15" s="22" t="s">
         <x:v>12</x:v>
@@ -1675,13 +1175,13 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="27" t="s">
-        <x:v>93</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B16" s="20" t="s">
-        <x:v>94</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C16" s="20" t="s">
-        <x:v>95</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E16" s="22" t="s">
         <x:v>12</x:v>
@@ -1692,13 +1192,13 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="27" t="s">
-        <x:v>96</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B17" s="20" t="s">
-        <x:v>97</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C17" s="20" t="s">
-        <x:v>98</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E17" s="22" t="s">
         <x:v>12</x:v>
@@ -1732,327 +1232,6 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F17"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="A4" sqref="A4"/>
-      <x:selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="11.424911" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="8.710938" style="19" customWidth="1"/>
-    <x:col min="2" max="2" width="50.710938" style="20" customWidth="1"/>
-    <x:col min="3" max="3" width="15.710938" style="20" customWidth="1"/>
-    <x:col min="4" max="4" width="45.710938" style="21" customWidth="1"/>
-    <x:col min="5" max="5" width="15.710938" style="22" customWidth="1"/>
-    <x:col min="6" max="6" width="5" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" ht="30" customHeight="1" s="1" customFormat="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B1" s="17"/>
-      <x:c r="C1" s="17"/>
-      <x:c r="D1" s="17"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6" ht="18" customHeight="1" s="23" customFormat="1">
-      <x:c r="A2" s="11" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D2" s="9"/>
-      <x:c r="E2" s="10"/>
-      <x:c r="F2" s="23" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" s="4" customFormat="1">
-      <x:c r="A3" s="24" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="25" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="25" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D3" s="25" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E3" s="26" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="27" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B4" s="20" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C4" s="20" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E4" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="27" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B5" s="20" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="20" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="27" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B6" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C6" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E6" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="27" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B7" s="20" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C7" s="20" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E7" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="27" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B8" s="20" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C8" s="20" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E8" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="27" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B9" s="20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C9" s="20" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E9" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B10" s="20" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C10" s="20" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E10" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="27" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B11" s="20" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C11" s="20" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E11" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="27" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B12" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C12" s="20" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E12" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="27" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B13" s="20" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C13" s="20">
-        <x:v>1111111111</x:v>
-      </x:c>
-      <x:c r="E13" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="27" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B14" s="20" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C14" s="20" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E14" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="27" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E15" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="27" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="B16" s="20" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C16" s="20" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E16" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="27" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B17" s="20" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C17" s="20" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E17" s="22" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="1">
-    <x:mergeCell ref="A1:E1"/>
-  </x:mergeCells>
-  <x:printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <x:pageSetup paperSize="9" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="0">
-    <x:oddHeader/>
-    <x:oddFooter>&amp;L&amp;"Courier New,Normal"Fecha impresion: &amp;D&amp;C&amp;"Courier New,Normal"Página &amp;P</x:oddFooter>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-    <x:pageSetUpPr fitToPage="1"/>
-  </x:sheetPr>
   <x:dimension ref="A1:F29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
@@ -2073,14 +1252,14 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="30" customHeight="1" s="1" customFormat="1">
       <x:c r="A1" s="16" t="s">
-        <x:v>0</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B1" s="17"/>
       <x:c r="C1" s="17"/>
       <x:c r="D1" s="17"/>
       <x:c r="E1" s="18"/>
       <x:c r="F1" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="18" customHeight="1" s="23" customFormat="1">
@@ -2094,7 +1273,7 @@
       <x:c r="D2" s="9"/>
       <x:c r="E2" s="10"/>
       <x:c r="F2" s="23" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" s="4" customFormat="1">
@@ -2114,410 +1293,410 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="27" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" s="20" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="27" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="20" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="27" t="s">
-        <x:v>16</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B6" s="20" t="s">
-        <x:v>17</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="20" t="s">
-        <x:v>18</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="27" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B7" s="20" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="20" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E7" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="27" t="s">
-        <x:v>22</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B8" s="20" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>24</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E8" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="20" t="s">
-        <x:v>26</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
-        <x:v>27</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E9" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="27" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B10" s="20" t="s">
-        <x:v>29</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>30</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E10" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="27" t="s">
-        <x:v>31</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E11" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="27" t="s">
-        <x:v>32</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E12" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B13" s="20" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="20" t="s">
-        <x:v>35</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E13" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="27" t="s">
-        <x:v>36</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B14" s="20" t="s">
-        <x:v>37</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C14" s="20" t="s">
-        <x:v>38</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E14" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="27" t="s">
-        <x:v>39</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B15" s="20" t="s">
-        <x:v>40</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="27" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B16" s="20" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C16" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E16" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="27" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B17" s="20" t="s">
-        <x:v>45</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C17" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E17" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="27" t="s">
-        <x:v>47</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B18" s="20" t="s">
-        <x:v>48</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C18" s="20" t="s">
-        <x:v>49</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E18" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="27" t="s">
-        <x:v>50</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B19" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C19" s="20" t="s">
-        <x:v>52</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E19" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="27" t="s">
-        <x:v>53</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B20" s="20" t="s">
-        <x:v>45</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C20" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E20" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="27" t="s">
-        <x:v>54</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B21" s="20" t="s">
-        <x:v>55</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E21" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="27" t="s">
-        <x:v>56</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B22" s="20" t="s">
-        <x:v>57</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C22" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E22" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="27" t="s">
-        <x:v>59</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E23" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="27" t="s">
-        <x:v>60</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B24" s="20" t="s">
-        <x:v>61</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C24" s="20" t="s">
-        <x:v>62</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E24" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="27" t="s">
-        <x:v>63</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E25" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="27" t="s">
-        <x:v>64</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E26" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="27" t="s">
-        <x:v>65</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B27" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C27" s="20" t="s">
-        <x:v>67</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E27" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="27" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B28" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E28" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="27" t="s">
-        <x:v>70</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B29" s="20" t="s">
-        <x:v>71</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C29" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E29" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
